--- a/file/interface _test_case.xlsx
+++ b/file/interface _test_case.xlsx
@@ -16,16 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="104">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用例名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用例说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,37 +203,207 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试02</t>
-  </si>
-  <si>
-    <t>测试03</t>
-  </si>
-  <si>
-    <t>测试04</t>
-  </si>
-  <si>
-    <t>测试05</t>
-  </si>
-  <si>
-    <t>测试06</t>
-  </si>
-  <si>
-    <t>测试07</t>
-  </si>
-  <si>
-    <t>测试08</t>
-  </si>
-  <si>
-    <t>测试09</t>
-  </si>
-  <si>
-    <t>测试10</t>
-  </si>
-  <si>
-    <t>测试11</t>
-  </si>
-  <si>
-    <t>测试12</t>
+    <t>https://uat.china.polestar.com/api/configurator/v1/zh-cn/polestar-1/configuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxNzA3MDBSQjczMDBfMDAxMTExXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=70700&amp;featureType=Color&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS1外观选择雪晶白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS1外观选择镁光银</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS1外观选择锇晶灰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS1外观选择午夜蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS1外观选择太空黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS1哑光漆选择雪晶白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS1哑光漆选择镁光银</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS1哑光漆选择锇晶灰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS1哑光漆选择午夜蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS1哑光漆选择太空黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxNzI5MDBSQjczMDBfMDAxMTExXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=72900&amp;featureType=Color&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxNzE0MDBSQjczMDBfMDAxMTExXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=71400&amp;featureType=Color&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxNzIzMDBSQjczMDBfXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=72300&amp;featureType=Color&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxNzE3MDBSQjczMDBfXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=71700&amp;featureType=Color&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxODA3MDBSQjczMDBfXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=80700&amp;featureType=Color&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxODI5MDBSQjczMDBfMDAxMTExXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=82900&amp;featureType=Color&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxODIzMDBSQjczMDBfMDAxMTExXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=82300&amp;featureType=Color&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxODE0MDBSQjczMDBfXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=81400&amp;featureType=Color&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxODE3MDBSQjczMDBfMDAxMTExXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=81700&amp;featureType=Color&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS1外观细节选择镀铬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS1外观细节选高光黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxODE3MDBSQjczMDBfXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=GR03&amp;featureType=Misc1&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxODE3MDBSQjczMDBfMDAxMTExXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=001111&amp;featureType=Misc1&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS1车轮选择21英寸钻石切割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS1车轮选择21英寸高光黑钻石切割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS1车轮选择21英寸哑光黑钻石切割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxODE3MDBSQjczMDBfMDAxMTExXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=R13A&amp;featureType=Rims&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxODE3MDBSQjczMDBfMDAxMTExMDAxMTEyXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=001112&amp;featureType=Rims&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxODE3MDBSQjczMDBfMDAxMTExMDAxMTEzXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=001113&amp;featureType=Rims&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxODE3MDBSQjAzMDBfMDAxMTExMDAxMTEzXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=RB0300&amp;featureType=Upholstery&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxODE3MDBSQjczMDBfMDAxMTExMDAxMTEzXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=RB7300&amp;featureType=Upholstery&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS1内饰选择碳素黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS1内饰选择碳素黑内饰搭配锌骨架前排座椅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS0013</t>
+  </si>
+  <si>
+    <t>PS0014</t>
+  </si>
+  <si>
+    <t>PS0015</t>
+  </si>
+  <si>
+    <t>PS0016</t>
+  </si>
+  <si>
+    <t>PS0017</t>
+  </si>
+  <si>
+    <t>PS0018</t>
+  </si>
+  <si>
+    <t>PS0019</t>
+  </si>
+  <si>
+    <t>PS0020</t>
+  </si>
+  <si>
+    <t>PS0021</t>
+  </si>
+  <si>
+    <t>PS0022</t>
+  </si>
+  <si>
+    <t>PS0023</t>
+  </si>
+  <si>
+    <t>PS0024</t>
+  </si>
+  <si>
+    <t>PS0025</t>
+  </si>
+  <si>
+    <t>PS0026</t>
+  </si>
+  <si>
+    <t>PS0027</t>
+  </si>
+  <si>
+    <t>PS0028</t>
+  </si>
+  <si>
+    <t>PS0029</t>
+  </si>
+  <si>
+    <t>用例模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">configurator </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -603,19 +765,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="21.875" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="6.375" customWidth="1"/>
     <col min="6" max="6" width="13.125" customWidth="1"/>
     <col min="7" max="7" width="18.75" customWidth="1"/>
     <col min="8" max="8" width="23.25" customWidth="1"/>
@@ -627,271 +789,611 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" t="s">
         <v>61</v>
       </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>32</v>
+      <c r="D23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -909,9 +1411,26 @@
     <hyperlink ref="D11" r:id="rId10"/>
     <hyperlink ref="D12" r:id="rId11"/>
     <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId30"/>
 </worksheet>
 </file>
 

--- a/file/interface _test_case.xlsx
+++ b/file/interface _test_case.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="158">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,34 +71,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>state=eyJTIjoiNTM0RURQSTBFMTYxNzI5MDBSRkEwMDBfMDAxMTQ3XyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=534&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=72900&amp;featureType=Color&amp;device=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>state=eyJTIjoiNTM0RURQSTBFMTYxNzI4MDBSRkEwMDBfMDAxMTQ3XyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=534&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=72800&amp;featureType=Color&amp;device=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state=eyJTIjoiNTM0RURQSTBFMTYxNzA3MDBSRkEwMDBfMDAxMTQ3XyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=534&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=70700&amp;featureType=Color&amp;device=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state=eyJTIjoiNTM0RURQSTBFMTYxNzI3MDBSRjgwMDBfMDAxMTQ3XyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=534&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=72700&amp;featureType=Color&amp;device=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state=eyJTIjoiNTM0RURQSTBFMTYxNzIzMDBSRjgwMDBfMDAxMTQ3XyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=534&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=72300&amp;featureType=Color&amp;device=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state=eyJTIjoiNTM0RURQSTBFMTYxMDE5MDBSRkEwMDBfMDAxMTQ3XyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=534&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=01900&amp;featureType=Color&amp;device=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PS0002</t>
   </si>
   <si>
@@ -113,30 +90,6 @@
     <t>PS0006</t>
   </si>
   <si>
-    <t>state=eyJTIjoiNTM0RURQSTBFMTYxMDE5MDBSRkEwMDBfMDAxMTQ3XyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=534&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=RFA000&amp;featureType=Upholstery&amp;device=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state=eyJTIjoiNTM0RURQSTBFMTYxMDE5MDBSRjgwMDBfMDAxMTQ3XyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=534&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=RF8000&amp;featureType=Upholstery&amp;device=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state=eyJTIjoiNTM0RURQSTBFMTYxMDE5MDBSQ0MwMDBfMDAxMTQ3XyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=534&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=RCC000&amp;featureType=Upholstery&amp;device=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state=eyJTIjoiNTM0RURQSTBFMTYxMDE5MDBSQ0MwMDBfXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=534&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=R14B&amp;featureType=Rims&amp;device=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state=eyJTIjoiNTM0RURQSTBFMTYxMDE5MDBSQ0MwMDBfMDAxMTQ3XyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=534&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=001147&amp;featureType=Rims&amp;device=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state=eyJTIjoiNTM0RURQSTBFMTYxMDE5MDBSQ0MwMDBfMDAxMTUwWFBGV0hFXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=534&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=001150&amp;featureType=Packages&amp;device=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PS0007</t>
   </si>
   <si>
@@ -211,10 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxNzA3MDBSQjczMDBfMDAxMTExXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=70700&amp;featureType=Color&amp;device=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PS1外观选择雪晶白</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,42 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxNzI5MDBSQjczMDBfMDAxMTExXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=72900&amp;featureType=Color&amp;device=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxNzE0MDBSQjczMDBfMDAxMTExXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=71400&amp;featureType=Color&amp;device=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxNzIzMDBSQjczMDBfXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=72300&amp;featureType=Color&amp;device=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxNzE3MDBSQjczMDBfXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=71700&amp;featureType=Color&amp;device=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxODA3MDBSQjczMDBfXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=80700&amp;featureType=Color&amp;device=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxODI5MDBSQjczMDBfMDAxMTExXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=82900&amp;featureType=Color&amp;device=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxODIzMDBSQjczMDBfMDAxMTExXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=82300&amp;featureType=Color&amp;device=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxODE0MDBSQjczMDBfXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=81400&amp;featureType=Color&amp;device=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxODE3MDBSQjczMDBfMDAxMTExXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=81700&amp;featureType=Color&amp;device=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PS1外观细节选择镀铬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -299,14 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxODE3MDBSQjczMDBfXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=GR03&amp;featureType=Misc1&amp;device=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxODE3MDBSQjczMDBfMDAxMTExXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=001111&amp;featureType=Misc1&amp;device=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PS1车轮选择21英寸钻石切割</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,26 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxODE3MDBSQjczMDBfMDAxMTExXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=R13A&amp;featureType=Rims&amp;device=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxODE3MDBSQjczMDBfMDAxMTExMDAxMTEyXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=001112&amp;featureType=Rims&amp;device=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxODE3MDBSQjczMDBfMDAxMTExMDAxMTEzXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=001113&amp;featureType=Rims&amp;device=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxODE3MDBSQjAzMDBfMDAxMTExMDAxMTEzXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=RB0300&amp;featureType=Upholstery&amp;device=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state=eyJTIjoiMjMyQkQ2ODBEMTYxODE3MDBSQjczMDBfMDAxMTExMDAxMTEzXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=RB7300&amp;featureType=Upholstery&amp;device=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PS1内饰选择碳素黑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -402,15 +287,310 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">configurator </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>configurator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?state=eyJTIjoiNTM0RURQSTBFMTYxNzA3MDBSRkEwMDBfMDAxMTQ3XyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=534&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=70700&amp;featureType=Color&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?state=eyJTIjoiNTM0RURQSTBFMTYxNzI4MDBSRkEwMDBfMDAxMTQ3XyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=534&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=72800&amp;featureType=Color&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?state=eyJTIjoiNTM0RURQSTBFMTYxNzI5MDBSRkEwMDBfMDAxMTQ3XyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=534&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=72900&amp;featureType=Color&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?state=eyJTIjoiNTM0RURQSTBFMTYxNzI3MDBSRjgwMDBfMDAxMTQ3XyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=534&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=72700&amp;featureType=Color&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?state=eyJTIjoiNTM0RURQSTBFMTYxNzIzMDBSRjgwMDBfMDAxMTQ3XyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=534&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=72300&amp;featureType=Color&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?state=eyJTIjoiNTM0RURQSTBFMTYxMDE5MDBSRkEwMDBfMDAxMTQ3XyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=534&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=01900&amp;featureType=Color&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?state=eyJTIjoiNTM0RURQSTBFMTYxMDE5MDBSRkEwMDBfMDAxMTQ3XyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=534&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=RFA000&amp;featureType=Upholstery&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?state=eyJTIjoiNTM0RURQSTBFMTYxMDE5MDBSRjgwMDBfMDAxMTQ3XyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=534&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=RF8000&amp;featureType=Upholstery&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?state=eyJTIjoiNTM0RURQSTBFMTYxMDE5MDBSQ0MwMDBfMDAxMTQ3XyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=534&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=RCC000&amp;featureType=Upholstery&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?state=eyJTIjoiNTM0RURQSTBFMTYxMDE5MDBSQ0MwMDBfXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=534&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=R14B&amp;featureType=Rims&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?state=eyJTIjoiNTM0RURQSTBFMTYxMDE5MDBSQ0MwMDBfMDAxMTQ3XyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=534&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=001147&amp;featureType=Rims&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?state=eyJTIjoiNTM0RURQSTBFMTYxMDE5MDBSQ0MwMDBfMDAxMTUwWFBGV0hFXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=534&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=001150&amp;featureType=Packages&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?state=eyJTIjoiMjMyQkQ2ODBEMTYxNzA3MDBSQjczMDBfMDAxMTExXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=70700&amp;featureType=Color&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?state=eyJTIjoiMjMyQkQ2ODBEMTYxNzI5MDBSQjczMDBfMDAxMTExXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=72900&amp;featureType=Color&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?state=eyJTIjoiMjMyQkQ2ODBEMTYxNzE0MDBSQjczMDBfMDAxMTExXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=71400&amp;featureType=Color&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?state=eyJTIjoiMjMyQkQ2ODBEMTYxNzIzMDBSQjczMDBfXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=72300&amp;featureType=Color&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?state=eyJTIjoiMjMyQkQ2ODBEMTYxNzE3MDBSQjczMDBfXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=71700&amp;featureType=Color&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?state=eyJTIjoiMjMyQkQ2ODBEMTYxODA3MDBSQjczMDBfXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=80700&amp;featureType=Color&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?state=eyJTIjoiMjMyQkQ2ODBEMTYxODI5MDBSQjczMDBfMDAxMTExXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=82900&amp;featureType=Color&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?state=eyJTIjoiMjMyQkQ2ODBEMTYxODE0MDBSQjczMDBfXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=81400&amp;featureType=Color&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?state=eyJTIjoiMjMyQkQ2ODBEMTYxODIzMDBSQjczMDBfMDAxMTExXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=82300&amp;featureType=Color&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?state=eyJTIjoiMjMyQkQ2ODBEMTYxODE3MDBSQjczMDBfMDAxMTExXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=81700&amp;featureType=Color&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?state=eyJTIjoiMjMyQkQ2ODBEMTYxODE3MDBSQjczMDBfXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=GR03&amp;featureType=Misc1&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?state=eyJTIjoiMjMyQkQ2ODBEMTYxODE3MDBSQjczMDBfMDAxMTExXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=001111&amp;featureType=Misc1&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?state=eyJTIjoiMjMyQkQ2ODBEMTYxODE3MDBSQjczMDBfMDAxMTExXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=R13A&amp;featureType=Rims&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?state=eyJTIjoiMjMyQkQ2ODBEMTYxODE3MDBSQjczMDBfMDAxMTExMDAxMTEyXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=001112&amp;featureType=Rims&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?state=eyJTIjoiMjMyQkQ2ODBEMTYxODE3MDBSQjczMDBfMDAxMTExMDAxMTEzXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=001113&amp;featureType=Rims&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?state=eyJTIjoiMjMyQkQ2ODBEMTYxODE3MDBSQjAzMDBfMDAxMTExMDAxMTEzXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=RB0300&amp;featureType=Upholstery&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?state=eyJTIjoiMjMyQkQ2ODBEMTYxODE3MDBSQjczMDBfMDAxMTExMDAxMTEzXyIsIlAiOmZhbHNlLCJFIjp7ImUiOm51bGx9LCJPIjpudWxsLCJEIjoiaU9TIiwiVSI6bnVsbCwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsfX0&amp;pno3=232&amp;modelYear=2021&amp;change=A2pgG-b7gE4k&amp;partner=6CNP01&amp;featureCode=RB7300&amp;featureType=Upholstery&amp;device=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS0030</t>
+  </si>
+  <si>
+    <t>PS0031</t>
+  </si>
+  <si>
+    <t>PS0032</t>
+  </si>
+  <si>
+    <t>PS0033</t>
+  </si>
+  <si>
+    <t>PS0034</t>
+  </si>
+  <si>
+    <t>PS0035</t>
+  </si>
+  <si>
+    <t>PS0036</t>
+  </si>
+  <si>
+    <t>PS0037</t>
+  </si>
+  <si>
+    <t>PS0038</t>
+  </si>
+  <si>
+    <t>PS0039</t>
+  </si>
+  <si>
+    <t>PS0040</t>
+  </si>
+  <si>
+    <t>PS0041</t>
+  </si>
+  <si>
+    <t>PS0042</t>
+  </si>
+  <si>
+    <t>PS2 HOME页静态资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn-dev.china.polestar.com/uat-wallbox/static/img/next.png</t>
+  </si>
+  <si>
+    <t>https://cdn-dev.china.polestar.com/uat-wallbox/static/img/back.png</t>
+  </si>
+  <si>
+    <t>https://cdn-dev.china.polestar.com/uat-wallbox/static/img/back-img.png</t>
+  </si>
+  <si>
+    <t>https://cdn-dev.china.polestar.com/uat-wallbox/static/img/car-cfrp.png</t>
+  </si>
+  <si>
+    <t>https://cdn-dev.china.polestar.com/uat-wallbox/static/img/car-down.png</t>
+  </si>
+  <si>
+    <t>https://cdn-dev.china.polestar.com/uat-wallbox/static/img/car-detail.png</t>
+  </si>
+  <si>
+    <t>https://cdn-dev.china.polestar.com/uat-wallbox/static/img/car-in.png</t>
+  </si>
+  <si>
+    <t>https://cdn-dev.china.polestar.com/uat-wallbox/static/img/car-head.png</t>
+  </si>
+  <si>
+    <t>https://cdn-dev.china.polestar.com/uat-wallbox/static/img/car-beautiful.png</t>
+  </si>
+  <si>
+    <t>https://cdn-dev.china.polestar.com/uat-wallbox/static/img/title-logo3.png</t>
+  </si>
+  <si>
+    <t>https://cdn-dev.china.polestar.com/uat-wallbox/static/img/logo.png</t>
+  </si>
+  <si>
+    <t>https://cdn-dev.china.polestar.com/uat-wallbox/static/video/video1.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn-dev.china.polestar.com/uat-wallbox/static/video/video2.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn-dev.china.polestar.com/uat-wallbox/static/img/car-log.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn-dev.china.polestar.com/uat-wallbox/static/img/title-logo1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn-dev.china.polestar.com/uat-wallbox/static/img/car-last.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn-dev.china.polestar.com/uat-wallbox/static/img/car-contain.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn-dev.china.polestar.com/uat-wallbox/static/img/car-fun.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn-dev.china.polestar.com/uat-wallbox/static/img/swiper2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn-dev.china.polestar.com/uat-wallbox/static/img/swiper1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn-dev.china.polestar.com/uat-wallbox/static/img/car-inner.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn-dev.china.polestar.com/uat-wallbox/static/img/ps.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn-dev.china.polestar.com/uat-wallbox/static/img/logo.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn-dev.china.polestar.com/uat-wallbox/static/img/back.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn-dev.china.polestar.com/uat-wallbox/static/img/next.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS1 HOME页静态资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS0043</t>
+  </si>
+  <si>
+    <t>PS0044</t>
+  </si>
+  <si>
+    <t>PS0045</t>
+  </si>
+  <si>
+    <t>PS0046</t>
+  </si>
+  <si>
+    <t>PS0047</t>
+  </si>
+  <si>
+    <t>PS0048</t>
+  </si>
+  <si>
+    <t>PS0049</t>
+  </si>
+  <si>
+    <t>PS0050</t>
+  </si>
+  <si>
+    <t>PS0051</t>
+  </si>
+  <si>
+    <t>PS0052</t>
+  </si>
+  <si>
+    <t>PS0053</t>
+  </si>
+  <si>
+    <t>PS0054</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +611,14 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -460,7 +648,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -468,6 +656,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -765,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -789,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -821,10 +1012,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -833,567 +1024,992 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
         <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
         <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
         <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
         <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
         <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>82</v>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" t="s">
+        <v>124</v>
+      </c>
+      <c r="E48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" t="s">
+        <v>127</v>
+      </c>
+      <c r="E51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" t="s">
+        <v>129</v>
+      </c>
+      <c r="E53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" t="s">
+        <v>131</v>
+      </c>
+      <c r="E55" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1428,9 +2044,22 @@
     <hyperlink ref="D28" r:id="rId27"/>
     <hyperlink ref="D29" r:id="rId28"/>
     <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId43"/>
 </worksheet>
 </file>
 
